--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -463,25 +463,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54347.826087000001</v>
+        <v>35448.422545200003</v>
       </c>
       <c r="C2">
-        <v>43290.043290000001</v>
+        <v>26062.0276257</v>
       </c>
       <c r="D2">
-        <v>39588.281868600003</v>
+        <v>32425.4215305</v>
       </c>
       <c r="E2">
-        <v>42881.646655199998</v>
+        <v>32226.877215600001</v>
       </c>
       <c r="F2">
-        <v>5024.8731219499996</v>
+        <v>832.80588960299997</v>
       </c>
       <c r="G2">
-        <v>4442.4700133300003</v>
+        <v>898.76330169699997</v>
       </c>
       <c r="H2">
-        <v>4769.62701517</v>
+        <v>934.77163528899996</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -489,25 +489,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34025.178632199997</v>
+        <v>19387.359441600001</v>
       </c>
       <c r="C3">
-        <v>29137.529137500002</v>
+        <v>23843.586075300002</v>
       </c>
       <c r="D3">
-        <v>34317.089910800001</v>
+        <v>26322.716504299999</v>
       </c>
       <c r="E3">
-        <v>29815.146094200001</v>
+        <v>25974.025974</v>
       </c>
       <c r="F3">
-        <v>782.39302731299995</v>
+        <v>474.19209521800002</v>
       </c>
       <c r="G3">
-        <v>647.739712274</v>
+        <v>439.98592045100003</v>
       </c>
       <c r="H3">
-        <v>707.91949539500001</v>
+        <v>414.20044816500001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -515,25 +515,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20333.468889799999</v>
+        <v>17286.084701799999</v>
       </c>
       <c r="C4">
-        <v>21758.050478699999</v>
+        <v>12431.626056700001</v>
       </c>
       <c r="D4">
-        <v>16809.547823199999</v>
+        <v>17799.9288003</v>
       </c>
       <c r="E4">
-        <v>20238.818052999999</v>
+        <v>16869.095816500001</v>
       </c>
       <c r="F4">
-        <v>400.66670940400002</v>
+        <v>309.59752322000003</v>
       </c>
       <c r="G4">
-        <v>394.43530669299997</v>
+        <v>292.45324403799998</v>
       </c>
       <c r="H4">
-        <v>410.81258729799998</v>
+        <v>267.76055779900003</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -541,25 +541,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13579.576317200001</v>
+        <v>12693.57705</v>
       </c>
       <c r="C5">
-        <v>12748.5976543</v>
+        <v>14615.609470900001</v>
       </c>
       <c r="D5">
-        <v>16786.973308699999</v>
+        <v>17898.693395400001</v>
       </c>
       <c r="E5">
-        <v>20185.708518399999</v>
+        <v>17205.7811425</v>
       </c>
       <c r="F5">
-        <v>257.25325554</v>
+        <v>234.694404416</v>
       </c>
       <c r="G5">
-        <v>285.82861716100001</v>
+        <v>211.28159188000001</v>
       </c>
       <c r="H5">
-        <v>285.29937890299999</v>
+        <v>247.71667158</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -567,25 +567,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12592.8724342</v>
+        <v>12294.0742562</v>
       </c>
       <c r="C6">
-        <v>14349.2610131</v>
+        <v>12152.144853600001</v>
       </c>
       <c r="D6">
-        <v>17373.175816499999</v>
+        <v>13159.6262666</v>
       </c>
       <c r="E6">
-        <v>16228.497241200001</v>
+        <v>12214.4863809</v>
       </c>
       <c r="F6">
-        <v>218.79300649999999</v>
+        <v>176.57798919999999</v>
       </c>
       <c r="G6">
-        <v>221.757517025</v>
+        <v>177.99897116599999</v>
       </c>
       <c r="H6">
-        <v>214.35583926699999</v>
+        <v>184.96254508499999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -593,25 +593,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9136.5920511599998</v>
+        <v>10828.3703303</v>
       </c>
       <c r="C7">
-        <v>8507.7420452599999</v>
+        <v>10811.9796735</v>
       </c>
       <c r="D7">
-        <v>15948.963317399999</v>
+        <v>14411.298457999999</v>
       </c>
       <c r="E7">
-        <v>15556.938394500001</v>
+        <v>11695.9064328</v>
       </c>
       <c r="F7">
-        <v>177.722802191</v>
+        <v>138.21031463599999</v>
       </c>
       <c r="G7">
-        <v>161.77224732400001</v>
+        <v>145.24940048299999</v>
       </c>
       <c r="H7">
-        <v>152.078302076</v>
+        <v>146.268115306</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -619,25 +619,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7835.1484760599997</v>
+        <v>6721.7853061799997</v>
       </c>
       <c r="C8">
-        <v>9954.2106310899999</v>
+        <v>8642.2953936499998</v>
       </c>
       <c r="D8">
-        <v>12017.786323800001</v>
+        <v>12012.012011999999</v>
       </c>
       <c r="E8">
-        <v>14594.279042599999</v>
+        <v>9823.1827111999992</v>
       </c>
       <c r="F8">
-        <v>135.941599489</v>
+        <v>125.565831026</v>
       </c>
       <c r="G8">
-        <v>137.741236558</v>
+        <v>126.01362207299999</v>
       </c>
       <c r="H8">
-        <v>142.56894990800001</v>
+        <v>125.594848602</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -645,25 +645,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8458.8056166400002</v>
+        <v>7068.6364600300003</v>
       </c>
       <c r="C9">
-        <v>7681.6715317300004</v>
+        <v>6657.78961385</v>
       </c>
       <c r="D9">
-        <v>11463.945890200001</v>
+        <v>9655.3055904199991</v>
       </c>
       <c r="E9">
-        <v>9442.8706326800002</v>
+        <v>9931.4728374299993</v>
       </c>
       <c r="F9">
-        <v>124.756568745</v>
+        <v>118.264259122</v>
       </c>
       <c r="G9">
-        <v>122.317126722</v>
+        <v>117.70660451800001</v>
       </c>
       <c r="H9">
-        <v>126.25720613</v>
+        <v>110.84926052500001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -671,25 +671,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7051.1916513899996</v>
+        <v>5058.9366115299999</v>
       </c>
       <c r="C10">
-        <v>7930.2141157799997</v>
+        <v>5980.5035583999997</v>
       </c>
       <c r="D10">
-        <v>10104.071941</v>
+        <v>7961.1495899900001</v>
       </c>
       <c r="E10">
-        <v>8710.0426792100006</v>
+        <v>8395.6007052299992</v>
       </c>
       <c r="F10">
-        <v>108.532028344</v>
+        <v>96.237869216600004</v>
       </c>
       <c r="G10">
-        <v>108.16868257</v>
+        <v>102.43214894499999</v>
       </c>
       <c r="H10">
-        <v>102.505648061</v>
+        <v>104.601088061</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -697,25 +697,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7088.1769209000004</v>
+        <v>6508.29808005</v>
       </c>
       <c r="C11">
-        <v>6817.0972799800002</v>
+        <v>5375.4770735900001</v>
       </c>
       <c r="D11">
-        <v>9183.5797593799998</v>
+        <v>10039.152695500001</v>
       </c>
       <c r="E11">
-        <v>8334.0278356500003</v>
+        <v>10039.152695500001</v>
       </c>
       <c r="F11">
-        <v>96.749319610399994</v>
+        <v>89.938248398599995</v>
       </c>
       <c r="G11">
-        <v>102.26402321</v>
+        <v>92.3174353478</v>
       </c>
       <c r="H11">
-        <v>100.467576099</v>
+        <v>83.541490881399994</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -723,25 +723,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6331.9192047200004</v>
+        <v>4515.2842371400002</v>
       </c>
       <c r="C12">
-        <v>5733.6161917299996</v>
+        <v>5471.6568176700002</v>
       </c>
       <c r="D12">
-        <v>6165.22811344</v>
+        <v>7739.3390604400001</v>
       </c>
       <c r="E12">
-        <v>7317.43011854</v>
+        <v>7463.2435256500003</v>
       </c>
       <c r="F12">
-        <v>84.777733975900006</v>
+        <v>76.832355641600003</v>
       </c>
       <c r="G12">
-        <v>84.256716734799994</v>
+        <v>74.543365975900002</v>
       </c>
       <c r="H12">
-        <v>84.102945369300002</v>
+        <v>73.753437832100005</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -749,25 +749,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5214.30806132</v>
+        <v>4070.6667752200001</v>
       </c>
       <c r="C13">
-        <v>4435.1798465399997</v>
+        <v>4477.2778150800004</v>
       </c>
       <c r="D13">
-        <v>6062.8107190500004</v>
+        <v>6019.0201035199998</v>
       </c>
       <c r="E13">
-        <v>6983.2402234600004</v>
+        <v>7051.1916513799997</v>
       </c>
       <c r="F13">
-        <v>77.739400427099994</v>
+        <v>73.644589737000004</v>
       </c>
       <c r="G13">
-        <v>79.570130327900003</v>
+        <v>75.730496368000004</v>
       </c>
       <c r="H13">
-        <v>77.027241454199995</v>
+        <v>78.726829709900002</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -775,25 +775,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4233.8795037899999</v>
+        <v>4185.1510839599996</v>
       </c>
       <c r="C14">
-        <v>5140.5952809299997</v>
+        <v>4819.5093739499998</v>
       </c>
       <c r="D14">
-        <v>7560.2933393800004</v>
+        <v>7877.7375137899999</v>
       </c>
       <c r="E14">
-        <v>6161.4294516199998</v>
+        <v>6080.5058980900003</v>
       </c>
       <c r="F14">
-        <v>69.9043079928</v>
+        <v>72.817407438199993</v>
       </c>
       <c r="G14">
-        <v>73.823293611500006</v>
+        <v>71.724280390299995</v>
       </c>
       <c r="H14">
-        <v>76.015799123700006</v>
+        <v>71.800240243600001</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -801,25 +801,25 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4902.2010882900004</v>
+        <v>4505.9252917599997</v>
       </c>
       <c r="C15">
-        <v>4234.2380488600002</v>
+        <v>4492.7666456999996</v>
       </c>
       <c r="D15">
-        <v>6511.6884808200002</v>
+        <v>7033.8327354700004</v>
       </c>
       <c r="E15">
-        <v>5193.7259790199996</v>
+        <v>7215.5278158700003</v>
       </c>
       <c r="F15">
-        <v>70.835877521900002</v>
+        <v>68.766190139900004</v>
       </c>
       <c r="G15">
-        <v>65.599192867499994</v>
+        <v>70.336843141800003</v>
       </c>
       <c r="H15">
-        <v>67.710812536500001</v>
+        <v>66.247101689299996</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -827,25 +827,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4437.5416019499999</v>
+        <v>4797.77383293</v>
       </c>
       <c r="C16">
-        <v>4419.10822396</v>
+        <v>4630.0583387400002</v>
       </c>
       <c r="D16">
-        <v>6597.6116645599996</v>
+        <v>7065.6397936900003</v>
       </c>
       <c r="E16">
-        <v>6939.14370968</v>
+        <v>7043.2455275299999</v>
       </c>
       <c r="F16">
-        <v>65.462848524199998</v>
+        <v>65.236721228500002</v>
       </c>
       <c r="G16">
-        <v>59.752219496199999</v>
+        <v>66.31268953</v>
       </c>
       <c r="H16">
-        <v>57.939878106099997</v>
+        <v>61.9985864322</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -853,25 +853,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4209.6400757800002</v>
+        <v>3941.8187551699998</v>
       </c>
       <c r="C17">
-        <v>3814.9010033200002</v>
+        <v>4087.13777742</v>
       </c>
       <c r="D17">
-        <v>5594.4055944000002</v>
+        <v>6593.6964262299998</v>
       </c>
       <c r="E17">
-        <v>4996.7521111400001</v>
+        <v>6262.1328824299999</v>
       </c>
       <c r="F17">
-        <v>56.618953874200002</v>
+        <v>62.311934791799999</v>
       </c>
       <c r="G17">
-        <v>60.221518834900003</v>
+        <v>59.234933446600003</v>
       </c>
       <c r="H17">
-        <v>55.827591000399998</v>
+        <v>60.693790721699997</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -879,25 +879,25 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4013.3242364600001</v>
+        <v>4171.8815185699996</v>
       </c>
       <c r="C18">
-        <v>4033.72191522</v>
+        <v>4219.7653810499996</v>
       </c>
       <c r="D18">
-        <v>5118.49311562</v>
+        <v>6333.1222292800003</v>
       </c>
       <c r="E18">
-        <v>4917.1460884099997</v>
+        <v>6328.7133725599997</v>
       </c>
       <c r="F18">
-        <v>55.9183413278</v>
+        <v>56.971227251400002</v>
       </c>
       <c r="G18">
-        <v>54.920551929600002</v>
+        <v>56.620268244199998</v>
       </c>
       <c r="H18">
-        <v>53.575609382400003</v>
+        <v>59.2758740672</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -905,25 +905,25 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3544.5909541999999</v>
+        <v>4045.9621297899998</v>
       </c>
       <c r="C19">
-        <v>3084.5157310300001</v>
+        <v>4046.9445568699998</v>
       </c>
       <c r="D19">
-        <v>5832.2640849199997</v>
+        <v>6032.8185328199997</v>
       </c>
       <c r="E19">
-        <v>5947.0710675099999</v>
+        <v>5646.2085709499997</v>
       </c>
       <c r="F19">
-        <v>48.546800086200001</v>
+        <v>53.891708922299998</v>
       </c>
       <c r="G19">
-        <v>55.186389270399999</v>
+        <v>51.676114783000003</v>
       </c>
       <c r="H19">
-        <v>56.4753826631</v>
+        <v>49.4334677429</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -931,25 +931,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3772.0191618600002</v>
+        <v>2802.4549505300001</v>
       </c>
       <c r="C20">
-        <v>2627.4303731</v>
+        <v>3156.1671506100001</v>
       </c>
       <c r="D20">
-        <v>5488.4742041600002</v>
+        <v>4931.2096257100002</v>
       </c>
       <c r="E20">
-        <v>4407.4220988200004</v>
+        <v>5700.60426405</v>
       </c>
       <c r="F20">
-        <v>51.736804528</v>
+        <v>49.020400820200003</v>
       </c>
       <c r="G20">
-        <v>51.246152695100001</v>
+        <v>49.1992332791</v>
       </c>
       <c r="H20">
-        <v>50.201004823300003</v>
+        <v>52.521698026499998</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -957,25 +957,25 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3473.9109289200001</v>
+        <v>3436.18995258</v>
       </c>
       <c r="C21">
-        <v>3724.8109658399999</v>
+        <v>2820.39711192</v>
       </c>
       <c r="D21">
-        <v>5563.9014076900003</v>
+        <v>5478.5514709700001</v>
       </c>
       <c r="E21">
-        <v>4429.2864419500002</v>
+        <v>5465.0781506200001</v>
       </c>
       <c r="F21">
-        <v>48.9577387008</v>
+        <v>51.4532454649</v>
       </c>
       <c r="G21">
-        <v>47.879603863299998</v>
+        <v>50.151155582900003</v>
       </c>
       <c r="H21">
-        <v>48.997342874099999</v>
+        <v>51.159059655599997</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -983,25 +983,25 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3056.6083873299999</v>
+        <v>3051.6646830899999</v>
       </c>
       <c r="C22">
-        <v>2609.8757699100001</v>
+        <v>3266.1593232499999</v>
       </c>
       <c r="D22">
-        <v>4399.4720633500001</v>
+        <v>5236.9730295700001</v>
       </c>
       <c r="E22">
-        <v>5114.5662847699996</v>
+        <v>3873.86689394</v>
       </c>
       <c r="F22">
-        <v>42.295942169600004</v>
+        <v>47.221487665700003</v>
       </c>
       <c r="G22">
-        <v>37.841920674299999</v>
+        <v>48.388564040299997</v>
       </c>
       <c r="H22">
-        <v>43.475784640100002</v>
+        <v>47.430072658100002</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1009,25 +1009,25 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2990.6094862099999</v>
+        <v>3324.9102274299998</v>
       </c>
       <c r="C23">
-        <v>2972.0331678900002</v>
+        <v>3317.29971802</v>
       </c>
       <c r="D23">
-        <v>3338.6752136800001</v>
+        <v>4956.8751858699998</v>
       </c>
       <c r="E23">
-        <v>4212.8322871399996</v>
+        <v>5019.5763477800001</v>
       </c>
       <c r="F23">
-        <v>40.706386058600003</v>
+        <v>45.9203236464</v>
       </c>
       <c r="G23">
-        <v>37.302659605000002</v>
+        <v>41.85790497</v>
       </c>
       <c r="H23">
-        <v>37.8035673714</v>
+        <v>45.593647528299996</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1035,25 +1035,25 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2134.0162185300001</v>
+        <v>2793.45214816</v>
       </c>
       <c r="C24">
-        <v>2447.0219742600002</v>
+        <v>2591.9494051500001</v>
       </c>
       <c r="D24">
-        <v>3376.0972315899999</v>
+        <v>4750.1425042700002</v>
       </c>
       <c r="E24">
-        <v>3584.1009282999999</v>
+        <v>4824.1593902200002</v>
       </c>
       <c r="F24">
-        <v>37.198353898400001</v>
+        <v>43.505877644100003</v>
       </c>
       <c r="G24">
-        <v>38.973257330300001</v>
+        <v>43.582308894800001</v>
       </c>
       <c r="H24">
-        <v>37.238303169700004</v>
+        <v>42.2245408187</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1061,25 +1061,25 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2511.7423957000001</v>
+        <v>2650.3405687600002</v>
       </c>
       <c r="C25">
-        <v>2548.8097058600001</v>
+        <v>2607.2220049500002</v>
       </c>
       <c r="D25">
-        <v>4251.3391718399998</v>
+        <v>4399.6656254099998</v>
       </c>
       <c r="E25">
-        <v>3478.7448688499999</v>
+        <v>4172.2296395100002</v>
       </c>
       <c r="F25">
-        <v>37.4990812725</v>
+        <v>38.444075979300003</v>
       </c>
       <c r="G25">
-        <v>34.964191423400003</v>
+        <v>39.329850806099998</v>
       </c>
       <c r="H25">
-        <v>34.194335297999999</v>
+        <v>41.610302044999997</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1087,25 +1087,25 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2369.55594522</v>
+        <v>2922.1822857299999</v>
       </c>
       <c r="C26">
-        <v>2192.5016443700001</v>
+        <v>2378.51723236</v>
       </c>
       <c r="D26">
-        <v>3313.7820194199999</v>
+        <v>4131.03647705</v>
       </c>
       <c r="E26">
-        <v>3208.1101023400001</v>
+        <v>4180.7767883400002</v>
       </c>
       <c r="F26">
-        <v>35.431203055899999</v>
+        <v>39.771362391899999</v>
       </c>
       <c r="G26">
-        <v>35.1396273091</v>
+        <v>36.713212901799999</v>
       </c>
       <c r="H26">
-        <v>33.831754010700003</v>
+        <v>37.891992664100002</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1113,25 +1113,25 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2479.9127070700001</v>
+        <v>2603.4208950500001</v>
       </c>
       <c r="C27">
-        <v>1907.2322246000001</v>
+        <v>2521.7500945699999</v>
       </c>
       <c r="D27">
-        <v>3896.8124074500001</v>
+        <v>4299.9656002900001</v>
       </c>
       <c r="E27">
-        <v>3645.7763680799999</v>
+        <v>4248.0883602499998</v>
       </c>
       <c r="F27">
-        <v>33.014948178099999</v>
+        <v>38.645953981200002</v>
       </c>
       <c r="G27">
-        <v>31.6857282727</v>
+        <v>36.992331119799999</v>
       </c>
       <c r="H27">
-        <v>34.545607802299998</v>
+        <v>36.8091746132</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1139,25 +1139,25 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2133.3788454099999</v>
+        <v>2171.8356354799998</v>
       </c>
       <c r="C28">
-        <v>2270.9724304000001</v>
+        <v>2697.2353337899999</v>
       </c>
       <c r="D28">
-        <v>3620.1715961300001</v>
+        <v>3508.8950489499998</v>
       </c>
       <c r="E28">
-        <v>3632.5329652400001</v>
+        <v>3974.7207758599998</v>
       </c>
       <c r="F28">
-        <v>30.284382465099998</v>
+        <v>34.570125672800003</v>
       </c>
       <c r="G28">
-        <v>30.4728471695</v>
+        <v>31.1082339451</v>
       </c>
       <c r="H28">
-        <v>32.971667116699997</v>
+        <v>36.160454059599999</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1165,25 +1165,25 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2359.3252329900001</v>
+        <v>2599.69843498</v>
       </c>
       <c r="C29">
-        <v>2423.6548715499998</v>
+        <v>2264.4927536199998</v>
       </c>
       <c r="D29">
-        <v>3098.9494561400002</v>
+        <v>3718.30147988</v>
       </c>
       <c r="E29">
-        <v>3417.98543939</v>
+        <v>3983.1116067900002</v>
       </c>
       <c r="F29">
-        <v>33.939769128099996</v>
+        <v>34.779886791499997</v>
       </c>
       <c r="G29">
-        <v>32.594895965200003</v>
+        <v>33.852586879299999</v>
       </c>
       <c r="H29">
-        <v>33.053851996799999</v>
+        <v>35.241284742200001</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1191,25 +1191,25 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2279.6699038000002</v>
+        <v>2550.8902607099999</v>
       </c>
       <c r="C30">
-        <v>2078.5267402499999</v>
+        <v>2442.4199496800002</v>
       </c>
       <c r="D30">
-        <v>3822.6299694099998</v>
+        <v>3860.2586373300001</v>
       </c>
       <c r="E30">
-        <v>3154.1761291500002</v>
+        <v>3118.7624750599998</v>
       </c>
       <c r="F30">
-        <v>32.605140982999998</v>
+        <v>33.276729616300003</v>
       </c>
       <c r="G30">
-        <v>33.383140979700002</v>
+        <v>32.013010087300003</v>
       </c>
       <c r="H30">
-        <v>32.071172345699999</v>
+        <v>31.143062509100002</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1217,25 +1217,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1820.00182</v>
+        <v>2211.1663902800001</v>
       </c>
       <c r="C31">
-        <v>1910.98626001</v>
+        <v>2455.6147631600002</v>
       </c>
       <c r="D31">
-        <v>2821.4315943900001</v>
+        <v>3699.59304475</v>
       </c>
       <c r="E31">
-        <v>3162.5553447399998</v>
+        <v>3440.6826314499999</v>
       </c>
       <c r="F31">
-        <v>28.869143677699999</v>
+        <v>27.507841798000001</v>
       </c>
       <c r="G31">
-        <v>30.080453180100001</v>
+        <v>24.883675040100002</v>
       </c>
       <c r="H31">
-        <v>28.403353754400001</v>
+        <v>32.347029281200001</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1243,25 +1243,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1977.22239797</v>
+        <v>1860.3958922500001</v>
       </c>
       <c r="C32">
-        <v>2031.65315618</v>
+        <v>2125.2630012899999</v>
       </c>
       <c r="D32">
-        <v>3132.6357997599998</v>
+        <v>3544.4653174099999</v>
       </c>
       <c r="E32">
-        <v>2502.25202683</v>
+        <v>3520.0112640299999</v>
       </c>
       <c r="F32">
-        <v>29.826769107699999</v>
+        <v>32.160772990600002</v>
       </c>
       <c r="G32">
-        <v>29.518630831399999</v>
+        <v>31.845795017499999</v>
       </c>
       <c r="H32">
-        <v>29.717514224999999</v>
+        <v>31.7701064267</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1269,25 +1269,25 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1944.3148234499999</v>
+        <v>2192.9343654700001</v>
       </c>
       <c r="C33">
-        <v>1899.40738489</v>
+        <v>2143.34705076</v>
       </c>
       <c r="D33">
-        <v>3202.3569346899999</v>
+        <v>3216.98568441</v>
       </c>
       <c r="E33">
-        <v>3143.8631790700001</v>
+        <v>3048.7804878100001</v>
       </c>
       <c r="F33">
-        <v>29.186130167200002</v>
+        <v>30.405903610199999</v>
       </c>
       <c r="G33">
-        <v>28.485329627999999</v>
+        <v>31.5491649567</v>
       </c>
       <c r="H33">
-        <v>28.266369832100001</v>
+        <v>30.992452717900001</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1295,25 +1295,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1929.16120071</v>
+        <v>1998.1217655400001</v>
       </c>
       <c r="C34">
-        <v>1803.9144944499999</v>
+        <v>2092.3128426200001</v>
       </c>
       <c r="D34">
-        <v>2790.3342820299999</v>
+        <v>3052.5962331000001</v>
       </c>
       <c r="E34">
-        <v>2797.1245559600002</v>
+        <v>2845.9217940499998</v>
       </c>
       <c r="F34">
-        <v>27.717599788899999</v>
+        <v>30.6978982991</v>
       </c>
       <c r="G34">
-        <v>26.972193287100001</v>
+        <v>29.155521968399999</v>
       </c>
       <c r="H34">
-        <v>27.408606686199999</v>
+        <v>28.952350511100001</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1321,25 +1321,25 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1787.8533245199999</v>
+        <v>1816.79444788</v>
       </c>
       <c r="C35">
-        <v>1861.81601533</v>
+        <v>1859.0124925600001</v>
       </c>
       <c r="D35">
-        <v>3156.1671506100001</v>
+        <v>2986.9470414299999</v>
       </c>
       <c r="E35">
-        <v>2466.3345336100001</v>
+        <v>2529.66026663</v>
       </c>
       <c r="F35">
-        <v>26.0087493433</v>
+        <v>28.047737248800001</v>
       </c>
       <c r="G35">
-        <v>26.700594221700001</v>
+        <v>28.188730314800001</v>
       </c>
       <c r="H35">
-        <v>26.6009941324</v>
+        <v>27.353861312100001</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1347,25 +1347,25 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2114.4331204800001</v>
+        <v>1780.46826315</v>
       </c>
       <c r="C36">
-        <v>1724.82191214</v>
+        <v>1977.3396871899999</v>
       </c>
       <c r="D36">
-        <v>2853.88127854</v>
+        <v>2771.3113845500002</v>
       </c>
       <c r="E36">
-        <v>2687.2329562099999</v>
+        <v>2770.3133224399999</v>
       </c>
       <c r="F36">
-        <v>25.5315215995</v>
+        <v>25.7551672592</v>
       </c>
       <c r="G36">
-        <v>26.3564824955</v>
+        <v>26.019164155199999</v>
       </c>
       <c r="H36">
-        <v>26.124844361200001</v>
+        <v>26.4380934856</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1373,25 +1373,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1862.9953238799999</v>
+        <v>1862.75240295</v>
       </c>
       <c r="C37">
-        <v>1632.09348632</v>
+        <v>1971.0647691900001</v>
       </c>
       <c r="D37">
-        <v>2861.0666056099999</v>
+        <v>2274.1227571499999</v>
       </c>
       <c r="E37">
-        <v>2487.3765639399999</v>
+        <v>2860.2482695499998</v>
       </c>
       <c r="F37">
-        <v>26.3133589503</v>
+        <v>26.7200354842</v>
       </c>
       <c r="G37">
-        <v>25.404477386700002</v>
+        <v>24.7006954975</v>
       </c>
       <c r="H37">
-        <v>24.754141863000001</v>
+        <v>24.760546940699999</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1399,25 +1399,25 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1564.43109463</v>
+        <v>1778.97957731</v>
       </c>
       <c r="C38">
-        <v>1596.3985249299999</v>
+        <v>1789.4529642299999</v>
       </c>
       <c r="D38">
-        <v>2844.6265005499999</v>
+        <v>2697.5991367699999</v>
       </c>
       <c r="E38">
-        <v>2795.3262145600002</v>
+        <v>2677.9497616499998</v>
       </c>
       <c r="F38">
-        <v>25.2847633258</v>
+        <v>24.565998643499999</v>
       </c>
       <c r="G38">
-        <v>25.012856608300002</v>
+        <v>25.6843531691</v>
       </c>
       <c r="H38">
-        <v>24.692223776700001</v>
+        <v>26.150470329299999</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1425,25 +1425,25 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1629.06247454</v>
+        <v>1873.00992696</v>
       </c>
       <c r="C39">
-        <v>1674.9015995300001</v>
+        <v>1788.9087656500001</v>
       </c>
       <c r="D39">
-        <v>2038.9854008699999</v>
+        <v>2823.42311819</v>
       </c>
       <c r="E39">
-        <v>1976.32364276</v>
+        <v>2716.94832365</v>
       </c>
       <c r="F39">
-        <v>24.524735157399999</v>
+        <v>24.615111955700002</v>
       </c>
       <c r="G39">
-        <v>24.4831245168</v>
+        <v>24.951818039399999</v>
       </c>
       <c r="H39">
-        <v>24.386651332300001</v>
+        <v>22.691914598499999</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1451,25 +1451,25 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1606.9419893899999</v>
+        <v>1871.1524427899999</v>
       </c>
       <c r="C40">
-        <v>1628.3992834999999</v>
+        <v>1639.2099008299999</v>
       </c>
       <c r="D40">
-        <v>2595.1781589799998</v>
+        <v>2325.0406882100001</v>
       </c>
       <c r="E40">
-        <v>2686.36668904</v>
+        <v>2106.77116252</v>
       </c>
       <c r="F40">
-        <v>24.188617030300001</v>
+        <v>25.4164614287</v>
       </c>
       <c r="G40">
-        <v>23.335442079500002</v>
+        <v>23.866747177200001</v>
       </c>
       <c r="H40">
-        <v>22.897945687899998</v>
+        <v>22.360139563000001</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1477,25 +1477,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1408.2126964500001</v>
+        <v>1644.30413049</v>
       </c>
       <c r="C41">
-        <v>1420.7168937399999</v>
+        <v>1738.7373289499999</v>
       </c>
       <c r="D41">
-        <v>2192.0210433900002</v>
+        <v>2684.9962409999998</v>
       </c>
       <c r="E41">
-        <v>2201.6247991</v>
+        <v>2303.2452725799999</v>
       </c>
       <c r="F41">
-        <v>22.734418568399999</v>
+        <v>23.911574995700001</v>
       </c>
       <c r="G41">
-        <v>22.947727371799999</v>
+        <v>24.240561392</v>
       </c>
       <c r="H41">
-        <v>23.632488338000002</v>
+        <v>23.011093648199999</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1503,25 +1503,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1542.3530137600001</v>
+        <v>1687.1372655</v>
       </c>
       <c r="C42">
-        <v>1578.4821315700001</v>
+        <v>1391.53667395</v>
       </c>
       <c r="D42">
-        <v>1941.0691408800001</v>
+        <v>2381.1224610999998</v>
       </c>
       <c r="E42">
-        <v>2490.2878772700001</v>
+        <v>2682.0437173199998</v>
       </c>
       <c r="F42">
-        <v>22.8969967154</v>
+        <v>23.0486972876</v>
       </c>
       <c r="G42">
-        <v>22.6236307896</v>
+        <v>23.600713685599999</v>
       </c>
       <c r="H42">
-        <v>22.9652606798</v>
+        <v>22.790339813100001</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1529,25 +1529,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1786.3522686599999</v>
+        <v>1461.0697952999999</v>
       </c>
       <c r="C43">
-        <v>1570.10519705</v>
+        <v>1734.78592742</v>
       </c>
       <c r="D43">
-        <v>2699.3467581099999</v>
+        <v>2521.24145929</v>
       </c>
       <c r="E43">
-        <v>2189.5732521499999</v>
+        <v>2699.41962478</v>
       </c>
       <c r="F43">
-        <v>22.1182321251</v>
+        <v>21.266206976300001</v>
       </c>
       <c r="G43">
-        <v>21.848486861200001</v>
+        <v>23.186464854800001</v>
       </c>
       <c r="H43">
-        <v>21.843642768199999</v>
+        <v>21.5915754854</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1555,25 +1555,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1480.3191568100001</v>
+        <v>1604.1065126799999</v>
       </c>
       <c r="C44">
-        <v>1601.3579515399999</v>
+        <v>1684.4658558799999</v>
       </c>
       <c r="D44">
-        <v>2185.1714266899999</v>
+        <v>2632.20236372</v>
       </c>
       <c r="E44">
-        <v>2351.8897434</v>
+        <v>2261.1644997100002</v>
       </c>
       <c r="F44">
-        <v>21.6818949456</v>
+        <v>22.2655311543</v>
       </c>
       <c r="G44">
-        <v>21.365448736400001</v>
+        <v>22.081279866300001</v>
       </c>
       <c r="H44">
-        <v>21.172584298099999</v>
+        <v>22.575595510300001</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1581,25 +1581,25 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1351.4791939700001</v>
+        <v>1496.9611688299999</v>
       </c>
       <c r="C45">
-        <v>1540.8557913100001</v>
+        <v>1513.2942903400001</v>
       </c>
       <c r="D45">
-        <v>2244.2155344500002</v>
+        <v>2553.0393933800001</v>
       </c>
       <c r="E45">
-        <v>2332.0351671100002</v>
+        <v>2268.1394452099998</v>
       </c>
       <c r="F45">
-        <v>20.203354847899998</v>
+        <v>22.021891521899999</v>
       </c>
       <c r="G45">
-        <v>19.664298953999999</v>
+        <v>21.1726380916</v>
       </c>
       <c r="H45">
-        <v>19.705625542300002</v>
+        <v>22.192843828699999</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1607,25 +1607,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1486.3478945899999</v>
+        <v>1257.8932803299999</v>
       </c>
       <c r="C46">
-        <v>1382.87721433</v>
+        <v>1418.25866202</v>
       </c>
       <c r="D46">
-        <v>1900.12920878</v>
+        <v>1888.11056775</v>
       </c>
       <c r="E46">
-        <v>2069.8362759500001</v>
+        <v>1916.73694703</v>
       </c>
       <c r="F46">
-        <v>19.493830982199999</v>
+        <v>19.969351039999999</v>
       </c>
       <c r="G46">
-        <v>19.313124852000001</v>
+        <v>21.729073652699999</v>
       </c>
       <c r="H46">
-        <v>16.428699689799998</v>
+        <v>21.114904990300001</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1633,25 +1633,25 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1167.17438752</v>
+        <v>1378.3407534</v>
       </c>
       <c r="C47">
-        <v>1253.74556487</v>
+        <v>1368.1949404</v>
       </c>
       <c r="D47">
-        <v>1903.16686966</v>
+        <v>2189.18978087</v>
       </c>
       <c r="E47">
-        <v>1914.09539851</v>
+        <v>2224.4961516200001</v>
       </c>
       <c r="F47">
-        <v>19.306897813999999</v>
+        <v>21.092218342399999</v>
       </c>
       <c r="G47">
-        <v>19.871376553800001</v>
+        <v>18.2311649733</v>
       </c>
       <c r="H47">
-        <v>19.031020372899999</v>
+        <v>20.117417317899999</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1659,25 +1659,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1206.33082416</v>
+        <v>1245.7023269700001</v>
       </c>
       <c r="C48">
-        <v>1210.1995619100001</v>
+        <v>1288.7760493799999</v>
       </c>
       <c r="D48">
-        <v>2227.3699216</v>
+        <v>1904.1453243799999</v>
       </c>
       <c r="E48">
-        <v>2115.9095237000001</v>
+        <v>1928.0453476299999</v>
       </c>
       <c r="F48">
-        <v>18.1979018183</v>
+        <v>19.322674559599999</v>
       </c>
       <c r="G48">
-        <v>19.076036892299999</v>
+        <v>20.219531541799999</v>
       </c>
       <c r="H48">
-        <v>19.622606262800002</v>
+        <v>19.5320511193</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1685,25 +1685,25 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1446.15251124</v>
+        <v>1158.1580654100001</v>
       </c>
       <c r="C49">
-        <v>1346.76507029</v>
+        <v>968.73879896100004</v>
       </c>
       <c r="D49">
-        <v>2212.9768965100002</v>
+        <v>1435.93572752</v>
       </c>
       <c r="E49">
-        <v>2242.35357432</v>
+        <v>1674.3407283399999</v>
       </c>
       <c r="F49">
-        <v>19.325848689800001</v>
+        <v>19.1313121612</v>
       </c>
       <c r="G49">
-        <v>19.708212037500001</v>
+        <v>19.310320323500001</v>
       </c>
       <c r="H49">
-        <v>19.347366881399999</v>
+        <v>19.592514875599999</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1711,25 +1711,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1274.1450486799999</v>
+        <v>1371.30946341</v>
       </c>
       <c r="C50">
-        <v>1376.7467474299999</v>
+        <v>1282.59391794</v>
       </c>
       <c r="D50">
-        <v>1811.8567908299999</v>
+        <v>2151.1853031099999</v>
       </c>
       <c r="E50">
-        <v>2144.1742784799999</v>
+        <v>1777.9990398899999</v>
       </c>
       <c r="F50">
-        <v>18.733260660799999</v>
+        <v>19.713344317600001</v>
       </c>
       <c r="G50">
-        <v>18.643471205499999</v>
+        <v>19.705470218799999</v>
       </c>
       <c r="H50">
-        <v>19.063290888299999</v>
+        <v>20.090342250999999</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1737,25 +1737,25 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1443.60554923</v>
+        <v>1485.9282593800001</v>
       </c>
       <c r="C51">
-        <v>1325.94340874</v>
+        <v>1472.08196552</v>
       </c>
       <c r="D51">
-        <v>2043.8612627</v>
+        <v>2130.9239686400001</v>
       </c>
       <c r="E51">
-        <v>2080.4726833899999</v>
+        <v>1955.7606931299999</v>
       </c>
       <c r="F51">
-        <v>18.626344356400001</v>
+        <v>19.5816574698</v>
       </c>
       <c r="G51">
-        <v>18.203089319099998</v>
+        <v>19.1014195602</v>
       </c>
       <c r="H51">
-        <v>16.9177199921</v>
+        <v>17.388803384300001</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1763,25 +1763,25 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1151.87467603</v>
+        <v>1356.5023942299999</v>
       </c>
       <c r="C52">
-        <v>1055.98851085</v>
+        <v>1363.45663526</v>
       </c>
       <c r="D52">
-        <v>1693.0213659399999</v>
+        <v>1918.8333493299999</v>
       </c>
       <c r="E52">
-        <v>1695.23131431</v>
+        <v>2055.54070998</v>
       </c>
       <c r="F52">
-        <v>17.198880284099999</v>
+        <v>19.189184054799998</v>
       </c>
       <c r="G52">
-        <v>17.432624214899999</v>
+        <v>18.667234150599999</v>
       </c>
       <c r="H52">
-        <v>17.1589718687</v>
+        <v>19.023819343700001</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1789,25 +1789,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1095.9504630399999</v>
+        <v>1267.39499632</v>
       </c>
       <c r="C53">
-        <v>1108.32797641</v>
+        <v>1260.2712103599999</v>
       </c>
       <c r="D53">
-        <v>1963.74918994</v>
+        <v>1725.83400929</v>
       </c>
       <c r="E53">
-        <v>1650.00165001</v>
+        <v>2171.64697703</v>
       </c>
       <c r="F53">
-        <v>16.790569878700001</v>
+        <v>18.561664075500001</v>
       </c>
       <c r="G53">
-        <v>16.745064266699998</v>
+        <v>18.060497610100001</v>
       </c>
       <c r="H53">
-        <v>16.962645032699999</v>
+        <v>18.4141783281</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1815,25 +1815,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1265.88688035</v>
+        <v>1308.9347888699999</v>
       </c>
       <c r="C54">
-        <v>969.41495807199999</v>
+        <v>1197.1603356799999</v>
       </c>
       <c r="D54">
-        <v>1818.18181817</v>
+        <v>1909.63602337</v>
       </c>
       <c r="E54">
-        <v>1472.62392131</v>
+        <v>2095.9527152999999</v>
       </c>
       <c r="F54">
-        <v>15.822161437</v>
+        <v>18.051053071399998</v>
       </c>
       <c r="G54">
-        <v>16.049370431300002</v>
+        <v>17.619717168299999</v>
       </c>
       <c r="H54">
-        <v>15.910711632</v>
+        <v>17.118996196800001</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1841,25 +1841,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1129.8669016700001</v>
+        <v>1213.25358213</v>
       </c>
       <c r="C55">
-        <v>1091.7268936</v>
+        <v>1353.80283216</v>
       </c>
       <c r="D55">
-        <v>1730.5828603099999</v>
+        <v>2142.1532924899998</v>
       </c>
       <c r="E55">
-        <v>1627.1539450299999</v>
+        <v>1828.45440749</v>
       </c>
       <c r="F55">
-        <v>15.887110009200001</v>
+        <v>17.991892493400002</v>
       </c>
       <c r="G55">
-        <v>16.108133254199998</v>
+        <v>16.8470792303</v>
       </c>
       <c r="H55">
-        <v>15.9612002376</v>
+        <v>16.510218587000001</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1867,25 +1867,25 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1088.74348115</v>
+        <v>1157.3136435700001</v>
       </c>
       <c r="C56">
-        <v>1134.6101479500001</v>
+        <v>1228.45595372</v>
       </c>
       <c r="D56">
-        <v>1798.0437284300001</v>
+        <v>1464.9868151200001</v>
       </c>
       <c r="E56">
-        <v>1870.6624015499999</v>
+        <v>1471.7353231100001</v>
       </c>
       <c r="F56">
-        <v>16.1977341638</v>
+        <v>17.462475323300001</v>
       </c>
       <c r="G56">
-        <v>16.3733946091</v>
+        <v>16.477898606499998</v>
       </c>
       <c r="H56">
-        <v>16.642775961800002</v>
+        <v>16.854010226300002</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1893,25 +1893,25 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1112.9784416099999</v>
+        <v>1095.96247425</v>
       </c>
       <c r="C57">
-        <v>1113.05276983</v>
+        <v>1138.03188765</v>
       </c>
       <c r="D57">
-        <v>1604.9303460199999</v>
+        <v>1896.23786408</v>
       </c>
       <c r="E57">
-        <v>1545.4039685800001</v>
+        <v>1757.8090667700001</v>
       </c>
       <c r="F57">
-        <v>15.4355407957</v>
+        <v>17.083016799300001</v>
       </c>
       <c r="G57">
-        <v>15.3903855953</v>
+        <v>17.056949572699999</v>
       </c>
       <c r="H57">
-        <v>15.568600312799999</v>
+        <v>17.650300249299999</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1919,25 +1919,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1241.48034117</v>
+        <v>1189.96620497</v>
       </c>
       <c r="C58">
-        <v>1154.18797105</v>
+        <v>1282.3472083300001</v>
       </c>
       <c r="D58">
-        <v>1649.0221298700001</v>
+        <v>1971.68658069</v>
       </c>
       <c r="E58">
-        <v>1514.4401871699999</v>
+        <v>1933.33848891</v>
       </c>
       <c r="F58">
-        <v>15.489505550200001</v>
+        <v>15.924953972899999</v>
       </c>
       <c r="G58">
-        <v>15.1756467292</v>
+        <v>13.3416816683</v>
       </c>
       <c r="H58">
-        <v>15.6146552909</v>
+        <v>12.7489243414</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1945,25 +1945,25 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1228.15420703</v>
+        <v>991.52248277399997</v>
       </c>
       <c r="C59">
-        <v>1130.6078147600001</v>
+        <v>1004.01606426</v>
       </c>
       <c r="D59">
-        <v>1773.8359201999999</v>
+        <v>1492.2477728199999</v>
       </c>
       <c r="E59">
-        <v>1859.28900785</v>
+        <v>1540.8083080599999</v>
       </c>
       <c r="F59">
-        <v>15.114066616500001</v>
+        <v>14.0992536701</v>
       </c>
       <c r="G59">
-        <v>15.012774369700001</v>
+        <v>14.723370686000001</v>
       </c>
       <c r="H59">
-        <v>15.3836237326</v>
+        <v>13.514989204200001</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1971,25 +1971,25 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>873.45398644299996</v>
+        <v>1019.00443267</v>
       </c>
       <c r="C60">
-        <v>1081.31487889</v>
+        <v>991.97492287499995</v>
       </c>
       <c r="D60">
-        <v>1467.8252700800001</v>
+        <v>1445.2328992800001</v>
       </c>
       <c r="E60">
-        <v>1685.2607098200001</v>
+        <v>1491.5577829399999</v>
       </c>
       <c r="F60">
-        <v>15.0191283619</v>
+        <v>13.7301700303</v>
       </c>
       <c r="G60">
-        <v>14.8354107606</v>
+        <v>13.2727987528</v>
       </c>
       <c r="H60">
-        <v>14.5101805603</v>
+        <v>13.254312887099999</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1997,25 +1997,25 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1092.57377604</v>
+        <v>950.67878464800003</v>
       </c>
       <c r="C61">
-        <v>965.80098705399996</v>
+        <v>947.79542783399995</v>
       </c>
       <c r="D61">
-        <v>1459.0446175899999</v>
+        <v>1474.4695595799999</v>
       </c>
       <c r="E61">
-        <v>1517.2434720700001</v>
+        <v>1389.7381733300001</v>
       </c>
       <c r="F61">
-        <v>14.609047996999999</v>
+        <v>13.496374941199999</v>
       </c>
       <c r="G61">
-        <v>14.555106433500001</v>
+        <v>13.2505650041</v>
       </c>
       <c r="H61">
-        <v>14.890926199200001</v>
+        <v>13.229970222</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2023,25 +2023,25 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1116.9689929399999</v>
+        <v>891.01941531</v>
       </c>
       <c r="C62">
-        <v>1037.77501037</v>
+        <v>995.21302534699998</v>
       </c>
       <c r="D62">
-        <v>1803.0688231399999</v>
+        <v>1530.87780535</v>
       </c>
       <c r="E62">
-        <v>1619.40697316</v>
+        <v>1395.08928571</v>
       </c>
       <c r="F62">
-        <v>14.445038938</v>
+        <v>13.0278340978</v>
       </c>
       <c r="G62">
-        <v>14.484522635799999</v>
+        <v>13.3332515561</v>
       </c>
       <c r="H62">
-        <v>14.467217935200001</v>
+        <v>13.253634809299999</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2049,25 +2049,25 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1015.62023928</v>
+        <v>921.75243573299997</v>
       </c>
       <c r="C63">
-        <v>956.98358772999995</v>
+        <v>943.38732653399995</v>
       </c>
       <c r="D63">
-        <v>1395.3812879100001</v>
+        <v>1452.20081033</v>
       </c>
       <c r="E63">
-        <v>1596.8063872299999</v>
+        <v>1653.73993286</v>
       </c>
       <c r="F63">
-        <v>14.5225100358</v>
+        <v>13.1449279573</v>
       </c>
       <c r="G63">
-        <v>14.270216830200001</v>
+        <v>12.600544469500001</v>
       </c>
       <c r="H63">
-        <v>14.535496409</v>
+        <v>12.2482119754</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2075,25 +2075,25 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1065.5641629500001</v>
+        <v>873.84324999199998</v>
       </c>
       <c r="C64">
-        <v>901.49377518599999</v>
+        <v>884.306217554</v>
       </c>
       <c r="D64">
-        <v>1467.4160271000001</v>
+        <v>1273.7555408400001</v>
       </c>
       <c r="E64">
-        <v>1582.4787947899999</v>
+        <v>1304.3591683499999</v>
       </c>
       <c r="F64">
-        <v>13.865360143</v>
+        <v>12.1464915466</v>
       </c>
       <c r="G64">
-        <v>13.9211705366</v>
+        <v>12.7282541914</v>
       </c>
       <c r="H64">
-        <v>13.5605944314</v>
+        <v>12.7403466394</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2101,25 +2101,25 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1030.0570651600001</v>
+        <v>854.75929977700002</v>
       </c>
       <c r="C65">
-        <v>888.59663933100001</v>
+        <v>871.42931836599996</v>
       </c>
       <c r="D65">
-        <v>1717.9178835499999</v>
+        <v>1364.4240084099999</v>
       </c>
       <c r="E65">
-        <v>1418.82209388</v>
+        <v>1312.49097663</v>
       </c>
       <c r="F65">
-        <v>13.686168224599999</v>
+        <v>12.675758904</v>
       </c>
       <c r="G65">
-        <v>13.873837701899999</v>
+        <v>12.722698107699999</v>
       </c>
       <c r="H65">
-        <v>14.1145252579</v>
+        <v>12.813931716600001</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2127,25 +2127,25 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1055.2975939200001</v>
+        <v>843.34809191700003</v>
       </c>
       <c r="C66">
-        <v>976.56249999600004</v>
+        <v>834.88482763800005</v>
       </c>
       <c r="D66">
-        <v>1490.4462395999999</v>
+        <v>1205.22585933</v>
       </c>
       <c r="E66">
-        <v>1407.7369221199999</v>
+        <v>1259.54102326</v>
       </c>
       <c r="F66">
-        <v>13.9246539758</v>
+        <v>12.681092339099999</v>
       </c>
       <c r="G66">
-        <v>13.96718856</v>
+        <v>12.6698729047</v>
       </c>
       <c r="H66">
-        <v>13.676204907800001</v>
+        <v>12.594770928200001</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2153,25 +2153,25 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1052.72022907</v>
+        <v>880.50646731899997</v>
       </c>
       <c r="C67">
-        <v>1021.52350015</v>
+        <v>910.30741081500003</v>
       </c>
       <c r="D67">
-        <v>1249.4845876100001</v>
+        <v>1481.52537852</v>
       </c>
       <c r="E67">
-        <v>1311.26904618</v>
+        <v>1384.79221194</v>
       </c>
       <c r="F67">
-        <v>13.396717670199999</v>
+        <v>13.4160225411</v>
       </c>
       <c r="G67">
-        <v>13.330485941499999</v>
+        <v>13.3629152643</v>
       </c>
       <c r="H67">
-        <v>13.467576338600001</v>
+        <v>13.143988051599999</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2179,25 +2179,25 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>868.28920976999996</v>
+        <v>969.36797208500002</v>
       </c>
       <c r="C68">
-        <v>912.76687021199996</v>
+        <v>994.67847018199996</v>
       </c>
       <c r="D68">
-        <v>1436.8848336900001</v>
+        <v>1399.3451064999999</v>
       </c>
       <c r="E68">
-        <v>1513.61496663</v>
+        <v>1288.06223918</v>
       </c>
       <c r="F68">
-        <v>13.591911290500001</v>
+        <v>13.397405083400001</v>
       </c>
       <c r="G68">
-        <v>13.6325217439</v>
+        <v>13.459086060800001</v>
       </c>
       <c r="H68">
-        <v>13.1445564711</v>
+        <v>10.5486489449</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2205,25 +2205,25 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>830.578581042</v>
+        <v>889.95683709299999</v>
       </c>
       <c r="C69">
-        <v>915.91027742599999</v>
+        <v>912.933529303</v>
       </c>
       <c r="D69">
-        <v>1291.5224466499999</v>
+        <v>1215.18495115</v>
       </c>
       <c r="E69">
-        <v>1286.7528791</v>
+        <v>1394.27232927</v>
       </c>
       <c r="F69">
-        <v>13.139299170799999</v>
+        <v>12.4765876832</v>
       </c>
       <c r="G69">
-        <v>12.427459366200001</v>
+        <v>12.4583393133</v>
       </c>
       <c r="H69">
-        <v>12.425669644199999</v>
+        <v>11.698548526</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2231,25 +2231,25 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>810.08392469</v>
+        <v>744.35222747099999</v>
       </c>
       <c r="C70">
-        <v>944.50111451500004</v>
+        <v>826.76742205100004</v>
       </c>
       <c r="D70">
-        <v>1283.46638601</v>
+        <v>1297.5890795</v>
       </c>
       <c r="E70">
-        <v>1294.28057414</v>
+        <v>1307.0699413100001</v>
       </c>
       <c r="F70">
-        <v>12.521344196399999</v>
+        <v>11.659651054599999</v>
       </c>
       <c r="G70">
-        <v>12.254947015699999</v>
+        <v>11.810221085</v>
       </c>
       <c r="H70">
-        <v>11.949542816499999</v>
+        <v>11.8159816824</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2257,25 +2257,25 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>782.3379387</v>
+        <v>772.46323075199996</v>
       </c>
       <c r="C71">
-        <v>906.39643967100005</v>
+        <v>780.59746929999994</v>
       </c>
       <c r="D71">
-        <v>1209.2775775699999</v>
+        <v>1320.0971591499999</v>
       </c>
       <c r="E71">
-        <v>1355.4176041600001</v>
+        <v>1160.6044428</v>
       </c>
       <c r="F71">
-        <v>11.9546040647</v>
+        <v>11.474765556199999</v>
       </c>
       <c r="G71">
-        <v>11.8695911757</v>
+        <v>11.902261013</v>
       </c>
       <c r="H71">
-        <v>12.2445256257</v>
+        <v>11.957491595700001</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2283,25 +2283,25 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>864.03539089000003</v>
+        <v>874.39338958600001</v>
       </c>
       <c r="C72">
-        <v>845.64450796200003</v>
+        <v>798.173778395</v>
       </c>
       <c r="D72">
-        <v>1214.0489747300001</v>
+        <v>1359.98912008</v>
       </c>
       <c r="E72">
-        <v>1297.5217334900001</v>
+        <v>1368.6068950399999</v>
       </c>
       <c r="F72">
-        <v>11.9380990463</v>
+        <v>11.8160096059</v>
       </c>
       <c r="G72">
-        <v>12.3469045569</v>
+        <v>12.0453642874</v>
       </c>
       <c r="H72">
-        <v>12.5787872338</v>
+        <v>12.2995798833</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2309,25 +2309,25 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>893.14422492400001</v>
+        <v>820.68116537200001</v>
       </c>
       <c r="C73">
-        <v>872.56989285300006</v>
+        <v>839.214830603</v>
       </c>
       <c r="D73">
-        <v>1407.9747690700001</v>
+        <v>1443.2930173499999</v>
       </c>
       <c r="E73">
-        <v>1231.34512141</v>
+        <v>1430.81985977</v>
       </c>
       <c r="F73">
-        <v>12.548660568500001</v>
+        <v>12.071604411599999</v>
       </c>
       <c r="G73">
-        <v>12.4805179115</v>
+        <v>12.0469140565</v>
       </c>
       <c r="H73">
-        <v>12.321147759300001</v>
+        <v>12.2142372325</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2335,25 +2335,25 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>830.61307551200002</v>
+        <v>854.868905853</v>
       </c>
       <c r="C74">
-        <v>834.35541872800002</v>
+        <v>864.73024740200003</v>
       </c>
       <c r="D74">
-        <v>1275.0060562799999</v>
+        <v>1218.82846208</v>
       </c>
       <c r="E74">
-        <v>1248.76684273</v>
+        <v>1223.19670225</v>
       </c>
       <c r="F74">
-        <v>12.1117370726</v>
+        <v>11.7841969441</v>
       </c>
       <c r="G74">
-        <v>12.154741528200001</v>
+        <v>12.0070894659</v>
       </c>
       <c r="H74">
-        <v>12.2980597105</v>
+        <v>11.9703666392</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2361,25 +2361,25 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>844.20243974799996</v>
+        <v>787.05452713499994</v>
       </c>
       <c r="C75">
-        <v>813.14034802000003</v>
+        <v>835.85482873499996</v>
       </c>
       <c r="D75">
-        <v>1393.70879848</v>
+        <v>1149.6367147999999</v>
       </c>
       <c r="E75">
-        <v>1264.2704527400001</v>
+        <v>1160.10626574</v>
       </c>
       <c r="F75">
-        <v>12.0792670494</v>
+        <v>11.7454999173</v>
       </c>
       <c r="G75">
-        <v>11.9702820989</v>
+        <v>11.6981831318</v>
       </c>
       <c r="H75">
-        <v>11.831428177599999</v>
+        <v>11.5778047</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2387,25 +2387,25 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>805.470757381</v>
+        <v>874.14879760199995</v>
       </c>
       <c r="C76">
-        <v>807.61744776800003</v>
+        <v>837.14933907299996</v>
       </c>
       <c r="D76">
-        <v>1351.64359861</v>
+        <v>1286.0743865300001</v>
       </c>
       <c r="E76">
-        <v>1301.4393919700001</v>
+        <v>1198.45160053</v>
       </c>
       <c r="F76">
-        <v>11.468807939</v>
+        <v>11.836361824300001</v>
       </c>
       <c r="G76">
-        <v>11.638260969099999</v>
+        <v>11.3535394546</v>
       </c>
       <c r="H76">
-        <v>11.733372256799999</v>
+        <v>11.5786854464</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2413,25 +2413,25 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>816.93339542499996</v>
+        <v>818.06951955700004</v>
       </c>
       <c r="C77">
-        <v>861.83864656799994</v>
+        <v>809.96581944100001</v>
       </c>
       <c r="D77">
-        <v>1453.06596919</v>
+        <v>1342.6423201</v>
       </c>
       <c r="E77">
-        <v>1360.67380568</v>
+        <v>1306.47226359</v>
       </c>
       <c r="F77">
-        <v>11.940030480500001</v>
+        <v>11.6850263749</v>
       </c>
       <c r="G77">
-        <v>12.197659659399999</v>
+        <v>11.599524558700001</v>
       </c>
       <c r="H77">
-        <v>11.7723523715</v>
+        <v>11.302459234300001</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2439,25 +2439,25 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>673.53220494300001</v>
+        <v>795.77918719000002</v>
       </c>
       <c r="C78">
-        <v>690.27403879600001</v>
+        <v>802.81950209199999</v>
       </c>
       <c r="D78">
-        <v>1124.4167088300001</v>
+        <v>1284.7690627699999</v>
       </c>
       <c r="E78">
-        <v>1125.30242503</v>
+        <v>1248.29919236</v>
       </c>
       <c r="F78">
-        <v>11.310179059399999</v>
+        <v>11.2788285448</v>
       </c>
       <c r="G78">
-        <v>11.1251188719</v>
+        <v>11.241793209900001</v>
       </c>
       <c r="H78">
-        <v>11.6998652293</v>
+        <v>11.1836945313</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2465,25 +2465,25 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>753.41485283099996</v>
+        <v>788.05932512000004</v>
       </c>
       <c r="C79">
-        <v>724.22308968000004</v>
+        <v>894.26241235400005</v>
       </c>
       <c r="D79">
-        <v>1148.34294114</v>
+        <v>1371.5915949</v>
       </c>
       <c r="E79">
-        <v>1178.88383279</v>
+        <v>1266.0311190499999</v>
       </c>
       <c r="F79">
-        <v>12.1222068769</v>
+        <v>11.2161818098</v>
       </c>
       <c r="G79">
-        <v>11.9095838684</v>
+        <v>11.1667887197</v>
       </c>
       <c r="H79">
-        <v>11.3253027876</v>
+        <v>11.068840439300001</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2491,25 +2491,25 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>777.69568767600003</v>
+        <v>731.82869354499996</v>
       </c>
       <c r="C80">
-        <v>899.02994668700001</v>
+        <v>830.70277454200004</v>
       </c>
       <c r="D80">
-        <v>1171.4951793</v>
+        <v>1207.3357721499999</v>
       </c>
       <c r="E80">
-        <v>1030.84281708</v>
+        <v>1217.32990857</v>
       </c>
       <c r="F80">
-        <v>11.5388751628</v>
+        <v>10.968783828399999</v>
       </c>
       <c r="G80">
-        <v>10.9241575071</v>
+        <v>11.0362826622</v>
       </c>
       <c r="H80">
-        <v>11.3427566687</v>
+        <v>10.819403171399999</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2517,25 +2517,25 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>782.90143271600004</v>
+        <v>775.77111649300002</v>
       </c>
       <c r="C81">
-        <v>796.67309316299998</v>
+        <v>781.073038139</v>
       </c>
       <c r="D81">
-        <v>1201.63422257</v>
+        <v>1168.5519304500001</v>
       </c>
       <c r="E81">
-        <v>1383.01109174</v>
+        <v>1190.37699241</v>
       </c>
       <c r="F81">
-        <v>11.2125322024</v>
+        <v>10.9913976925</v>
       </c>
       <c r="G81">
-        <v>11.1024733868</v>
+        <v>10.687861122799999</v>
       </c>
       <c r="H81">
-        <v>11.4454636248</v>
+        <v>10.6916057637</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2543,25 +2543,25 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>702.46917915799997</v>
+        <v>727.86030903999995</v>
       </c>
       <c r="C82">
-        <v>724.93711170899996</v>
+        <v>715.45087714700003</v>
       </c>
       <c r="D82">
-        <v>1192.1366665400001</v>
+        <v>1075.4885406599999</v>
       </c>
       <c r="E82">
-        <v>1107.14997453</v>
+        <v>1133.4398766700001</v>
       </c>
       <c r="F82">
-        <v>11.1818324742</v>
+        <v>10.2566343244</v>
       </c>
       <c r="G82">
-        <v>10.6918972633</v>
+        <v>10.266452426300001</v>
       </c>
       <c r="H82">
-        <v>11.224114246199999</v>
+        <v>10.3309114922</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2569,25 +2569,25 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>846.43186645599997</v>
+        <v>688.98519370400004</v>
       </c>
       <c r="C83">
-        <v>756.17225603300005</v>
+        <v>776.02396361800004</v>
       </c>
       <c r="D83">
-        <v>1154.9611355699999</v>
+        <v>1307.7707739499999</v>
       </c>
       <c r="E83">
-        <v>1276.14502113</v>
+        <v>1181.1256126999999</v>
       </c>
       <c r="F83">
-        <v>11.2609619834</v>
+        <v>10.460557422200001</v>
       </c>
       <c r="G83">
-        <v>11.0990834044</v>
+        <v>10.6440003389</v>
       </c>
       <c r="H83">
-        <v>10.7487874024</v>
+        <v>10.5064177402</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2595,25 +2595,25 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>683.69523601000003</v>
+        <v>749.48472924600003</v>
       </c>
       <c r="C84">
-        <v>767.71895344999996</v>
+        <v>768.46230691400001</v>
       </c>
       <c r="D84">
-        <v>1191.72466394</v>
+        <v>1260.22356369</v>
       </c>
       <c r="E84">
-        <v>1141.10961496</v>
+        <v>1201.64866196</v>
       </c>
       <c r="F84">
-        <v>10.860845847</v>
+        <v>10.3000231957</v>
       </c>
       <c r="G84">
-        <v>10.741793914</v>
+        <v>10.463272917999999</v>
       </c>
       <c r="H84">
-        <v>10.8765569519</v>
+        <v>10.115250125399999</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2621,25 +2621,25 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>793.61300255399999</v>
+        <v>760.71080817899997</v>
       </c>
       <c r="C85">
-        <v>721.56319450900003</v>
+        <v>709.51171404000002</v>
       </c>
       <c r="D85">
-        <v>1224.4847980100001</v>
+        <v>1059.86094624</v>
       </c>
       <c r="E85">
-        <v>1233.6540833900001</v>
+        <v>1097.58640747</v>
       </c>
       <c r="F85">
-        <v>10.2065207828</v>
+        <v>10.0199738158</v>
       </c>
       <c r="G85">
-        <v>10.4605716472</v>
+        <v>10.316899029</v>
       </c>
       <c r="H85">
-        <v>10.647375326200001</v>
+        <v>10.1369378662</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2647,25 +2647,25 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>727.74377596800002</v>
+        <v>771.64066237500003</v>
       </c>
       <c r="C86">
-        <v>661.26195230300004</v>
+        <v>786.670652464</v>
       </c>
       <c r="D86">
-        <v>1265.4703753399999</v>
+        <v>1137.8376533400001</v>
       </c>
       <c r="E86">
-        <v>1155.3080629000001</v>
+        <v>1054.61870262</v>
       </c>
       <c r="F86">
-        <v>10.0440471644</v>
+        <v>10.393319589900001</v>
       </c>
       <c r="G86">
-        <v>9.8700382454100009</v>
+        <v>10.2831432649</v>
       </c>
       <c r="H86">
-        <v>9.2264847351500006</v>
+        <v>10.1869758292</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2673,25 +2673,25 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>680.39245036700004</v>
+        <v>763.55695371399997</v>
       </c>
       <c r="C87">
-        <v>662.09818917099994</v>
+        <v>774.82140366099998</v>
       </c>
       <c r="D87">
-        <v>1116.96899291</v>
+        <v>1038.74519581</v>
       </c>
       <c r="E87">
-        <v>1050.8396208500001</v>
+        <v>1187.2959335</v>
       </c>
       <c r="F87">
-        <v>9.8943882888400001</v>
+        <v>10.1172334425</v>
       </c>
       <c r="G87">
-        <v>9.9617369683000003</v>
+        <v>10.1871584755</v>
       </c>
       <c r="H87">
-        <v>10.0243189979</v>
+        <v>10.0844725846</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2699,25 +2699,25 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>677.17185944899995</v>
+        <v>766.73004967899999</v>
       </c>
       <c r="C88">
-        <v>722.76791200100001</v>
+        <v>750.81839205200004</v>
       </c>
       <c r="D88">
-        <v>1142.23054781</v>
+        <v>1153.7219068700001</v>
       </c>
       <c r="E88">
-        <v>1098.96148141</v>
+        <v>923.40366590099995</v>
       </c>
       <c r="F88">
-        <v>9.9987131656100008</v>
+        <v>10.176062157</v>
       </c>
       <c r="G88">
-        <v>9.9372680144800007</v>
+        <v>10.1509352716</v>
       </c>
       <c r="H88">
-        <v>10.2114369932</v>
+        <v>10.587440986900001</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2725,25 +2725,25 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>696.77185598400001</v>
+        <v>761.74805944599996</v>
       </c>
       <c r="C89">
-        <v>738.20350794199999</v>
+        <v>787.25280261800003</v>
       </c>
       <c r="D89">
-        <v>1152.3126915800001</v>
+        <v>1091.5362280700001</v>
       </c>
       <c r="E89">
-        <v>1129.1524581799999</v>
+        <v>1165.8408627199999</v>
       </c>
       <c r="F89">
-        <v>9.9560212672499997</v>
+        <v>10.2323835703</v>
       </c>
       <c r="G89">
-        <v>10.1704341006</v>
+        <v>10.3291497178</v>
       </c>
       <c r="H89">
-        <v>10.007925276</v>
+        <v>10.1327275854</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2751,25 +2751,25 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>739.52463356999999</v>
+        <v>686.36064133100001</v>
       </c>
       <c r="C90">
-        <v>731.42723396500003</v>
+        <v>728.00867786200001</v>
       </c>
       <c r="D90">
-        <v>1142.2566422100001</v>
+        <v>1118.58074474</v>
       </c>
       <c r="E90">
-        <v>1089.9776554699999</v>
+        <v>1002.67714799</v>
       </c>
       <c r="F90">
-        <v>9.9933893729300003</v>
+        <v>9.7716683569999994</v>
       </c>
       <c r="G90">
-        <v>10.0438080777</v>
+        <v>9.6574166642199994</v>
       </c>
       <c r="H90">
-        <v>10.030503765000001</v>
+        <v>9.9139774094199993</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2777,25 +2777,25 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>736.93596762899995</v>
+        <v>683.27013085099998</v>
       </c>
       <c r="C91">
-        <v>697.56410613599996</v>
+        <v>640.44267397500005</v>
       </c>
       <c r="D91">
-        <v>1117.66809728</v>
+        <v>1179.8992366099999</v>
       </c>
       <c r="E91">
-        <v>1191.4690814000001</v>
+        <v>1168.6338670099999</v>
       </c>
       <c r="F91">
-        <v>9.7192308589500005</v>
+        <v>10.1757069852</v>
       </c>
       <c r="G91">
-        <v>9.75506114521</v>
+        <v>9.9376343878700002</v>
       </c>
       <c r="H91">
-        <v>9.7017318949700009</v>
+        <v>10.007724962899999</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2803,25 +2803,25 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>710.69669596799997</v>
+        <v>679.583279533</v>
       </c>
       <c r="C92">
-        <v>744.71808695599998</v>
+        <v>623.42196315800004</v>
       </c>
       <c r="D92">
-        <v>1110.6915165400001</v>
+        <v>1098.8890232000001</v>
       </c>
       <c r="E92">
-        <v>1086.0357522899999</v>
+        <v>1076.1366693499999</v>
       </c>
       <c r="F92">
-        <v>9.7835870543599999</v>
+        <v>9.7987752902699992</v>
       </c>
       <c r="G92">
-        <v>9.7687225627099998</v>
+        <v>9.83201317254</v>
       </c>
       <c r="H92">
-        <v>9.7352451407699991</v>
+        <v>9.8368392976199992</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2829,25 +2829,25 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>675.46117111399997</v>
+        <v>692.00321089800002</v>
       </c>
       <c r="C93">
-        <v>659.93532633799998</v>
+        <v>704.32455275899997</v>
       </c>
       <c r="D93">
-        <v>1114.20612811</v>
+        <v>1058.87335874</v>
       </c>
       <c r="E93">
-        <v>1116.3330691399999</v>
+        <v>985.78498057399997</v>
       </c>
       <c r="F93">
-        <v>9.7459522623799995</v>
+        <v>9.2904907924700009</v>
       </c>
       <c r="G93">
-        <v>9.8067280234399998</v>
+        <v>9.6428956111200002</v>
       </c>
       <c r="H93">
-        <v>9.6348674290399998</v>
+        <v>9.6722462631300008</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2855,25 +2855,25 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>722.04251385500004</v>
+        <v>710.09110468899996</v>
       </c>
       <c r="C94">
-        <v>650.48265813299997</v>
+        <v>631.07807066199996</v>
       </c>
       <c r="D94">
-        <v>1110.1982814200001</v>
+        <v>1044.57188221</v>
       </c>
       <c r="E94">
-        <v>1006.38045207</v>
+        <v>1084.0695972599999</v>
       </c>
       <c r="F94">
-        <v>9.59568209659</v>
+        <v>9.6414703550799992</v>
       </c>
       <c r="G94">
-        <v>9.6328627037699999</v>
+        <v>9.7214937852900007</v>
       </c>
       <c r="H94">
-        <v>9.7473791247000001</v>
+        <v>9.5508183284400001</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2881,25 +2881,25 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>642.71895828300001</v>
+        <v>708.47119001700003</v>
       </c>
       <c r="C95">
-        <v>669.285805117</v>
+        <v>725.27360947199998</v>
       </c>
       <c r="D95">
-        <v>1006.12731534</v>
+        <v>1125.3784085</v>
       </c>
       <c r="E95">
-        <v>1008.34913081</v>
+        <v>988.23994465800001</v>
       </c>
       <c r="F95">
-        <v>9.51723356862</v>
+        <v>9.5229198110199995</v>
       </c>
       <c r="G95">
-        <v>9.5480096362300007</v>
+        <v>9.6770216604700003</v>
       </c>
       <c r="H95">
-        <v>9.5447971692400007</v>
+        <v>9.58893850738</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2907,25 +2907,25 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>707.33363512899996</v>
+        <v>645.46944993299996</v>
       </c>
       <c r="C96">
-        <v>676.92432663600005</v>
+        <v>662.03243958799999</v>
       </c>
       <c r="D96">
-        <v>939.876124323</v>
+        <v>1077.43527309</v>
       </c>
       <c r="E96">
-        <v>986.99145265599998</v>
+        <v>978.44485974300005</v>
       </c>
       <c r="F96">
-        <v>9.6022765845499993</v>
+        <v>9.5171919030400005</v>
       </c>
       <c r="G96">
-        <v>9.2876752456599991</v>
+        <v>9.5914658973000009</v>
       </c>
       <c r="H96">
-        <v>9.1682339762700007</v>
+        <v>9.5045271013000008</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2933,25 +2933,25 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>707.37366306499996</v>
+        <v>638.09286803800001</v>
       </c>
       <c r="C97">
-        <v>617.15442437700005</v>
+        <v>700.72665354200001</v>
       </c>
       <c r="D97">
-        <v>1035.0573939400001</v>
+        <v>1085.63487928</v>
       </c>
       <c r="E97">
-        <v>994.36196765700004</v>
+        <v>1021.2209718</v>
       </c>
       <c r="F97">
-        <v>9.0952243614500006</v>
+        <v>9.5450221993300008</v>
       </c>
       <c r="G97">
-        <v>9.3433965451500001</v>
+        <v>9.4192140852699993</v>
       </c>
       <c r="H97">
-        <v>8.7852155364800009</v>
+        <v>9.2610145645199999</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2959,25 +2959,25 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>607.52234163799994</v>
+        <v>657.78654827900004</v>
       </c>
       <c r="C98">
-        <v>582.79133739300005</v>
+        <v>627.30928229300002</v>
       </c>
       <c r="D98">
-        <v>888.89679020200003</v>
+        <v>949.02772108399995</v>
       </c>
       <c r="E98">
-        <v>959.97849649299997</v>
+        <v>1114.16888571</v>
       </c>
       <c r="F98">
-        <v>8.7077476139499996</v>
+        <v>8.8049313250600001</v>
       </c>
       <c r="G98">
-        <v>8.6850767713000003</v>
+        <v>9.6357141191500002</v>
       </c>
       <c r="H98">
-        <v>8.7290624707600006</v>
+        <v>9.3835504671300001</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2985,25 +2985,25 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>623.02578703400002</v>
+        <v>647.76908328000002</v>
       </c>
       <c r="C99">
-        <v>599.51678946899995</v>
+        <v>702.65674515000001</v>
       </c>
       <c r="D99">
-        <v>973.463388065</v>
+        <v>1152.0206442000001</v>
       </c>
       <c r="E99">
-        <v>1020.39775104</v>
+        <v>980.24800274999996</v>
       </c>
       <c r="F99">
-        <v>8.8459048679500007</v>
+        <v>9.6448282357400004</v>
       </c>
       <c r="G99">
-        <v>8.9101504879900002</v>
+        <v>9.7615764243100003</v>
       </c>
       <c r="H99">
-        <v>8.6899085221999997</v>
+        <v>9.7771561244599994</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3011,25 +3011,25 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>595.199123869</v>
+        <v>716.11179937099996</v>
       </c>
       <c r="C100">
-        <v>657.83847434200004</v>
+        <v>685.27414391499997</v>
       </c>
       <c r="D100">
-        <v>894.77451680000001</v>
+        <v>989.29581923000001</v>
       </c>
       <c r="E100">
-        <v>988.16182137500005</v>
+        <v>946.85313361099998</v>
       </c>
       <c r="F100">
-        <v>8.78739332434</v>
+        <v>9.8411016365300004</v>
       </c>
       <c r="G100">
-        <v>8.8732042187500006</v>
+        <v>9.7924845227299997</v>
       </c>
       <c r="H100">
-        <v>8.7690275841199998</v>
+        <v>9.6714109128099999</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3037,25 +3037,25 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>686.61512476099995</v>
+        <v>716.019504375</v>
       </c>
       <c r="C101">
-        <v>572.52126916700001</v>
+        <v>667.89113374999999</v>
       </c>
       <c r="D101">
-        <v>917.51536838499999</v>
+        <v>978.18644233600003</v>
       </c>
       <c r="E101">
-        <v>831.15156048599999</v>
+        <v>1069.4386516500001</v>
       </c>
       <c r="F101">
-        <v>8.7790477840900003</v>
+        <v>9.7836827738699998</v>
       </c>
       <c r="G101">
-        <v>8.6107086561599999</v>
+        <v>9.8264974648599992</v>
       </c>
       <c r="H101">
-        <v>8.6907611646700005</v>
+        <v>9.7162967656300001</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3063,25 +3063,25 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>632.83128717900001</v>
+        <v>673.16948388399999</v>
       </c>
       <c r="C102">
-        <v>585.03480956600004</v>
+        <v>679.606371986</v>
       </c>
       <c r="D102">
-        <v>994.70815263999998</v>
+        <v>880.45995228200002</v>
       </c>
       <c r="E102">
-        <v>995.28236162099995</v>
+        <v>940.60989147099997</v>
       </c>
       <c r="F102">
-        <v>8.6274346728500007</v>
+        <v>9.7701561007100004</v>
       </c>
       <c r="G102">
-        <v>8.6772850024799997</v>
+        <v>9.6782879031300002</v>
       </c>
       <c r="H102">
-        <v>8.9382454831900002</v>
+        <v>9.5085379063600008</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3089,25 +3089,25 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>666.57778962600003</v>
+        <v>637.38519098999996</v>
       </c>
       <c r="C103">
-        <v>621.92148863</v>
+        <v>732.14481824200004</v>
       </c>
       <c r="D103">
-        <v>1030.0570651600001</v>
+        <v>1106.99064593</v>
       </c>
       <c r="E103">
-        <v>989.64827898800002</v>
+        <v>1114.1688856999999</v>
       </c>
       <c r="F103">
-        <v>9.0986611502100008</v>
+        <v>9.7073147528899995</v>
       </c>
       <c r="G103">
-        <v>8.8144891161800007</v>
+        <v>9.6577169891000008</v>
       </c>
       <c r="H103">
-        <v>8.7574155605600001</v>
+        <v>9.6168400871399999</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3115,25 +3115,25 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>565.70685070800005</v>
+        <v>653.680219642</v>
       </c>
       <c r="C104">
-        <v>603.14722220800002</v>
+        <v>651.24518078799997</v>
       </c>
       <c r="D104">
-        <v>887.49256724400004</v>
+        <v>991.09992269999998</v>
       </c>
       <c r="E104">
-        <v>977.25917892099994</v>
+        <v>1033.4315093299999</v>
       </c>
       <c r="F104">
-        <v>8.3406146899600007</v>
+        <v>9.3464145751699998</v>
       </c>
       <c r="G104">
-        <v>7.8103594733600001</v>
+        <v>9.1330948560500005</v>
       </c>
       <c r="H104">
-        <v>8.7403021977000002</v>
+        <v>9.2743584300300004</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3141,25 +3141,25 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>586.25925557300002</v>
+        <v>697.58357051500002</v>
       </c>
       <c r="C105">
-        <v>603.47116614799995</v>
+        <v>649.97530094199999</v>
       </c>
       <c r="D105">
-        <v>809.81495728300001</v>
+        <v>1039.6199149500001</v>
       </c>
       <c r="E105">
-        <v>879.49974054400002</v>
+        <v>1038.0119994300001</v>
       </c>
       <c r="F105">
-        <v>8.3632220952300003</v>
+        <v>9.4645174766599993</v>
       </c>
       <c r="G105">
-        <v>8.3041594371999992</v>
+        <v>9.4045269819200001</v>
       </c>
       <c r="H105">
-        <v>8.2600767774099992</v>
+        <v>9.5382986536699992</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3167,25 +3167,25 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>626.029035228</v>
+        <v>648.12174318999996</v>
       </c>
       <c r="C106">
-        <v>556.47993055100005</v>
+        <v>616.49620546799997</v>
       </c>
       <c r="D106">
-        <v>918.20619237699998</v>
+        <v>990.83477828800005</v>
       </c>
       <c r="E106">
-        <v>886.21056364100002</v>
+        <v>1020.9811628800001</v>
       </c>
       <c r="F106">
-        <v>8.1544358826500005</v>
+        <v>9.2426088705399998</v>
       </c>
       <c r="G106">
-        <v>8.0453448508300003</v>
+        <v>8.7285733164400003</v>
       </c>
       <c r="H106">
-        <v>8.1874413165100002</v>
+        <v>8.6103831749699999</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3193,25 +3193,25 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>538.03070002699997</v>
+        <v>617.34111183300001</v>
       </c>
       <c r="C107">
-        <v>541.88206478899997</v>
+        <v>612.83522086400001</v>
       </c>
       <c r="D107">
-        <v>840.55510257599997</v>
+        <v>1006.85669409</v>
       </c>
       <c r="E107">
-        <v>922.40711359700003</v>
+        <v>994.48063249200004</v>
       </c>
       <c r="F107">
-        <v>8.0254322738599999</v>
+        <v>9.3152594942500002</v>
       </c>
       <c r="G107">
-        <v>8.1814387861900002</v>
+        <v>9.12696475029</v>
       </c>
       <c r="H107">
-        <v>8.2196825229799995</v>
+        <v>9.2235479022700009</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3219,25 +3219,25 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>518.77982984499999</v>
+        <v>636.41165652100005</v>
       </c>
       <c r="C108">
-        <v>626.92780299599997</v>
+        <v>673.56396163299996</v>
       </c>
       <c r="D108">
-        <v>855.61497326899996</v>
+        <v>1041.1460936200001</v>
       </c>
       <c r="E108">
-        <v>862.48533774800001</v>
+        <v>1069.8619878</v>
       </c>
       <c r="F108">
-        <v>8.0878037860000003</v>
+        <v>9.2450962853699998</v>
       </c>
       <c r="G108">
-        <v>8.0388643721400008</v>
+        <v>9.1699179374900002</v>
       </c>
       <c r="H108">
-        <v>7.96077566614</v>
+        <v>9.1077277521699997</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3245,25 +3245,25 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>576.34894470799998</v>
+        <v>517.25029742100003</v>
       </c>
       <c r="C109">
-        <v>544.01340449199995</v>
+        <v>559.97625701200002</v>
       </c>
       <c r="D109">
-        <v>766.98880196799996</v>
+        <v>919.32043833700004</v>
       </c>
       <c r="E109">
-        <v>894.30239940599995</v>
+        <v>989.98138834199995</v>
       </c>
       <c r="F109">
-        <v>8.0560637589099997</v>
+        <v>9.1478243592100004</v>
       </c>
       <c r="G109">
-        <v>8.1008195599199997</v>
+        <v>9.0614880866400007</v>
       </c>
       <c r="H109">
-        <v>7.8282347518500002</v>
+        <v>8.5920905853799994</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3271,25 +3271,25 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>614.94942040900003</v>
+        <v>595.29478997499996</v>
       </c>
       <c r="C110">
-        <v>563.40567461800003</v>
+        <v>554.24077327400005</v>
       </c>
       <c r="D110">
-        <v>901.68073288699998</v>
+        <v>843.88185653000005</v>
       </c>
       <c r="E110">
-        <v>895.31125496599998</v>
+        <v>700.71683332600003</v>
       </c>
       <c r="F110">
-        <v>8.0323943250200003</v>
+        <v>8.3942645012600003</v>
       </c>
       <c r="G110">
-        <v>8.0898510634100003</v>
+        <v>7.80188577821</v>
       </c>
       <c r="H110">
-        <v>8.1814829641499998</v>
+        <v>8.0102428577500007</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3297,25 +3297,25 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>578.42587183499995</v>
+        <v>556.88589408200005</v>
       </c>
       <c r="C111">
-        <v>540.33316943</v>
+        <v>522.86214739599995</v>
       </c>
       <c r="D111">
-        <v>839.20778783699996</v>
+        <v>932.287927803</v>
       </c>
       <c r="E111">
-        <v>888.85728508399995</v>
+        <v>911.20324388400002</v>
       </c>
       <c r="F111">
-        <v>8.2431892503499995</v>
+        <v>7.8700844239699999</v>
       </c>
       <c r="G111">
-        <v>8.0705436536100006</v>
+        <v>7.8951162232199996</v>
       </c>
       <c r="H111">
-        <v>8.23699142241</v>
+        <v>8.1129451775800003</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3323,25 +3323,25 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>614.75283863000004</v>
+        <v>555.98799066599997</v>
       </c>
       <c r="C112">
-        <v>558.77159651600005</v>
+        <v>568.57271191899997</v>
       </c>
       <c r="D112">
-        <v>897.82725803699998</v>
+        <v>829.73780286099998</v>
       </c>
       <c r="E112">
-        <v>920.42044803600004</v>
+        <v>909.39679709799998</v>
       </c>
       <c r="F112">
-        <v>7.9950079170599997</v>
+        <v>7.5452598640300002</v>
       </c>
       <c r="G112">
-        <v>7.9297437392300001</v>
+        <v>7.74153671981</v>
       </c>
       <c r="H112">
-        <v>7.9949459149899997</v>
+        <v>7.9383293420700003</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3349,25 +3349,25 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>586.10463139800004</v>
+        <v>549.17897742000002</v>
       </c>
       <c r="C113">
-        <v>549.218187908</v>
+        <v>569.82005082800003</v>
       </c>
       <c r="D113">
-        <v>776.61458171799995</v>
+        <v>860.82225742000003</v>
       </c>
       <c r="E113">
-        <v>872.08288276600001</v>
+        <v>822.29403589200001</v>
       </c>
       <c r="F113">
-        <v>7.9575715019600004</v>
+        <v>7.9565654275900002</v>
       </c>
       <c r="G113">
-        <v>7.4202559928999996</v>
+        <v>7.9331564927000002</v>
       </c>
       <c r="H113">
-        <v>7.2908828967600003</v>
+        <v>8.6632418561400009</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3375,25 +3375,25 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>535.92865717200004</v>
+        <v>622.47121070699995</v>
       </c>
       <c r="C114">
-        <v>539.11843353200004</v>
+        <v>637.64936936900006</v>
       </c>
       <c r="D114">
-        <v>814.94279100200004</v>
+        <v>1039.83612178</v>
       </c>
       <c r="E114">
-        <v>809.45442772399997</v>
+        <v>1031.19360663</v>
       </c>
       <c r="F114">
-        <v>7.5610707685999996</v>
+        <v>8.6238641292999993</v>
       </c>
       <c r="G114">
-        <v>7.4521262369299999</v>
+        <v>8.3278931371400002</v>
       </c>
       <c r="H114">
-        <v>7.5521548034699997</v>
+        <v>7.7663128878199998</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3401,25 +3401,25 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>524.77460930300003</v>
+        <v>600.88570553</v>
       </c>
       <c r="C115">
-        <v>499.495509535</v>
+        <v>582.92722735500001</v>
       </c>
       <c r="D115">
-        <v>830.502703311</v>
+        <v>906.61831367299999</v>
       </c>
       <c r="E115">
-        <v>698.65090510699997</v>
+        <v>927.65239012500001</v>
       </c>
       <c r="F115">
-        <v>7.4350547963600002</v>
+        <v>8.2239243004200002</v>
       </c>
       <c r="G115">
-        <v>6.7200904900499996</v>
+        <v>8.5783532632800004</v>
       </c>
       <c r="H115">
-        <v>6.9635982081799996</v>
+        <v>8.7768587236400002</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3427,25 +3427,25 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>488.75377561800002</v>
+        <v>580.65602517299999</v>
       </c>
       <c r="C116">
-        <v>499.26857153700001</v>
+        <v>619.38680706399998</v>
       </c>
       <c r="D116">
-        <v>745.67879138399996</v>
+        <v>852.50038363099998</v>
       </c>
       <c r="E116">
-        <v>891.45628297200005</v>
+        <v>871.08013936400005</v>
       </c>
       <c r="F116">
-        <v>6.7879621193700004</v>
+        <v>8.3091806225599996</v>
       </c>
       <c r="G116">
-        <v>6.7124342810700002</v>
+        <v>8.0455183244700006</v>
       </c>
       <c r="H116">
-        <v>6.8345178691899999</v>
+        <v>6.9842532328200004</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3453,25 +3453,25 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>516.17432238799995</v>
+        <v>512.56028990499999</v>
       </c>
       <c r="C117">
-        <v>524.37834946299995</v>
+        <v>497.60156047499999</v>
       </c>
       <c r="D117">
-        <v>770.73667010899999</v>
+        <v>756.20656537499997</v>
       </c>
       <c r="E117">
-        <v>789.47783935400003</v>
+        <v>780.60356267899999</v>
       </c>
       <c r="F117">
-        <v>7.1022137103</v>
+        <v>7.0464034557800002</v>
       </c>
       <c r="G117">
-        <v>7.1293419474800004</v>
+        <v>7.0563896561000004</v>
       </c>
       <c r="H117">
-        <v>7.4235329706900002</v>
+        <v>6.9372778510200002</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3479,25 +3479,25 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>524.85172937899995</v>
+        <v>512.36070193299997</v>
       </c>
       <c r="C118">
-        <v>544.71571286799997</v>
+        <v>501.16269745699998</v>
       </c>
       <c r="D118">
-        <v>736.70251952900003</v>
+        <v>804.71239580700001</v>
       </c>
       <c r="E118">
-        <v>827.07513151199998</v>
+        <v>807.66963080100004</v>
       </c>
       <c r="F118">
-        <v>7.4553469450099996</v>
+        <v>7.0630706784499999</v>
       </c>
       <c r="G118">
-        <v>7.3678475238700001</v>
+        <v>7.0420288704900003</v>
       </c>
       <c r="H118">
-        <v>7.4670843455</v>
+        <v>6.9993240052900001</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3505,25 +3505,25 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>493.150144485</v>
+        <v>474.25056553399997</v>
       </c>
       <c r="C119">
-        <v>528.56916327900001</v>
+        <v>520.60285810699997</v>
       </c>
       <c r="D119">
-        <v>791.427259929</v>
+        <v>797.50540310999997</v>
       </c>
       <c r="E119">
-        <v>851.12177849499994</v>
+        <v>772.29022667799995</v>
       </c>
       <c r="F119">
-        <v>7.4055258552799996</v>
+        <v>6.9466118838300002</v>
       </c>
       <c r="G119">
-        <v>7.3276918898999996</v>
+        <v>6.9964685325099998</v>
       </c>
       <c r="H119">
-        <v>7.3720347464599998</v>
+        <v>6.7828896724299996</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3531,25 +3531,25 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>515.60212014499996</v>
+        <v>472.17251295300002</v>
       </c>
       <c r="C120">
-        <v>566.70388022400005</v>
+        <v>482.85619094499998</v>
       </c>
       <c r="D120">
-        <v>850.57158408400005</v>
+        <v>763.88941938100004</v>
       </c>
       <c r="E120">
-        <v>818.72589873899994</v>
+        <v>739.31140535300005</v>
       </c>
       <c r="F120">
-        <v>7.3702998584400001</v>
+        <v>6.95022036716</v>
       </c>
       <c r="G120">
-        <v>7.27316366255</v>
+        <v>7.3587096473200004</v>
       </c>
       <c r="H120">
-        <v>7.2447808598699996</v>
+        <v>7.4166430508400003</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3557,25 +3557,25 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>502.00047188100001</v>
+        <v>559.70044832500002</v>
       </c>
       <c r="C121">
-        <v>515.44531898399998</v>
+        <v>523.94150717399998</v>
       </c>
       <c r="D121">
-        <v>780.542633239</v>
+        <v>761.49862929999995</v>
       </c>
       <c r="E121">
-        <v>793.66969053299999</v>
+        <v>820.48589175899997</v>
       </c>
       <c r="F121">
-        <v>7.3074303925199997</v>
+        <v>7.2612307640899996</v>
       </c>
       <c r="G121">
-        <v>7.2909227647000003</v>
+        <v>7.2332019012300002</v>
       </c>
       <c r="H121">
-        <v>7.2037130818700001</v>
+        <v>7.4158290426000004</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3583,25 +3583,25 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>482.64877648200002</v>
+        <v>512.78106812600004</v>
       </c>
       <c r="C122">
-        <v>484.90726148599998</v>
+        <v>480.63520748399998</v>
       </c>
       <c r="D122">
-        <v>808.64277395500005</v>
+        <v>812.836311013</v>
       </c>
       <c r="E122">
-        <v>761.66683170199997</v>
+        <v>826.43262096199999</v>
       </c>
       <c r="F122">
-        <v>7.19793989202</v>
+        <v>7.3828378698500003</v>
       </c>
       <c r="G122">
-        <v>7.0417234082900002</v>
+        <v>7.32630789249</v>
       </c>
       <c r="H122">
-        <v>7.0872952790500001</v>
+        <v>7.5069551939899997</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3609,25 +3609,25 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>492.97753501199998</v>
+        <v>500.50300551499998</v>
       </c>
       <c r="C123">
-        <v>477.50931143100001</v>
+        <v>544.57925805800005</v>
       </c>
       <c r="D123">
-        <v>802.00179647300001</v>
+        <v>784.22146413500002</v>
       </c>
       <c r="E123">
-        <v>818.31721248099996</v>
+        <v>839.22187349800004</v>
       </c>
       <c r="F123">
-        <v>7.0956336734400001</v>
+        <v>7.0633794922800002</v>
       </c>
       <c r="G123">
-        <v>7.0516729671</v>
+        <v>7.9446139648500003</v>
       </c>
       <c r="H123">
-        <v>7.0553645746799996</v>
+        <v>8.2696966394100002</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3635,25 +3635,25 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>517.37339873099995</v>
+        <v>578.23522610400005</v>
       </c>
       <c r="C124">
-        <v>469.35796523599998</v>
+        <v>575.66215539400002</v>
       </c>
       <c r="D124">
-        <v>857.52997065199997</v>
+        <v>941.22962235800003</v>
       </c>
       <c r="E124">
-        <v>863.42364743799999</v>
+        <v>962.60287819999996</v>
       </c>
       <c r="F124">
-        <v>7.0726179634899999</v>
+        <v>8.54643367151</v>
       </c>
       <c r="G124">
-        <v>7.1085068069600004</v>
+        <v>7.5052345258199997</v>
       </c>
       <c r="H124">
-        <v>6.9993293942500001</v>
+        <v>7.56312715341</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3661,25 +3661,25 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>496.42819911200002</v>
+        <v>574.181360928</v>
       </c>
       <c r="C125">
-        <v>480.72994034999999</v>
+        <v>507.441631524</v>
       </c>
       <c r="D125">
-        <v>683.07410671000002</v>
+        <v>808.01551388300004</v>
       </c>
       <c r="E125">
-        <v>842.50256962499998</v>
+        <v>838.65881680899997</v>
       </c>
       <c r="F125">
-        <v>7.0513726342999998</v>
+        <v>7.4347198144100002</v>
       </c>
       <c r="G125">
-        <v>7.0287711500999999</v>
+        <v>8.3534491349700009</v>
       </c>
       <c r="H125">
-        <v>6.9606937974100003</v>
+        <v>8.2904537249299999</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3687,25 +3687,25 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>468.99695620799997</v>
+        <v>593.71140874900004</v>
       </c>
       <c r="C126">
-        <v>489.67759627800001</v>
+        <v>577.583966272</v>
       </c>
       <c r="D126">
-        <v>718.35984081000004</v>
+        <v>935.12128525499998</v>
       </c>
       <c r="E126">
-        <v>711.72350967</v>
+        <v>904.42080891000001</v>
       </c>
       <c r="F126">
-        <v>6.9282602210200004</v>
+        <v>7.9724224341100003</v>
       </c>
       <c r="G126">
-        <v>6.9753354927100002</v>
+        <v>7.8565451424099999</v>
       </c>
       <c r="H126">
-        <v>6.8562158967500002</v>
+        <v>8.0566284299100008</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3713,25 +3713,25 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>508.17656086400001</v>
+        <v>596.56616516700001</v>
       </c>
       <c r="C127">
-        <v>511.55081746000002</v>
+        <v>584.42621035000002</v>
       </c>
       <c r="D127">
-        <v>741.84526589200004</v>
+        <v>935.78634129</v>
       </c>
       <c r="E127">
-        <v>753.58518150999998</v>
+        <v>897.19894488099999</v>
       </c>
       <c r="F127">
-        <v>6.8699762869000001</v>
+        <v>8.3934112728700008</v>
       </c>
       <c r="G127">
-        <v>6.8194156674600004</v>
+        <v>8.2178870858999993</v>
       </c>
       <c r="H127">
-        <v>6.9182382540200003</v>
+        <v>8.3109816407900006</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3739,25 +3739,25 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>453.50445567999998</v>
+        <v>553.94910315599998</v>
       </c>
       <c r="C128">
-        <v>484.36939948000003</v>
+        <v>562.06931439100003</v>
       </c>
       <c r="D128">
-        <v>734.73766192400001</v>
+        <v>819.00752668999996</v>
       </c>
       <c r="E128">
-        <v>769.68666057400003</v>
+        <v>874.80644909900002</v>
       </c>
       <c r="F128">
-        <v>6.8514995705799997</v>
+        <v>8.2029636323199995</v>
       </c>
       <c r="G128">
-        <v>6.6355094110400001</v>
+        <v>8.2900908378399993</v>
       </c>
       <c r="H128">
-        <v>6.8845142696400004</v>
+        <v>8.2216869355900002</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3765,25 +3765,25 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>547.94820793899999</v>
+        <v>569.59285502700004</v>
       </c>
       <c r="C129">
-        <v>496.72163718500002</v>
+        <v>587.32321571600005</v>
       </c>
       <c r="D129">
-        <v>753.74422443599997</v>
+        <v>916.464280788</v>
       </c>
       <c r="E129">
-        <v>752.19641352799999</v>
+        <v>827.87624905600001</v>
       </c>
       <c r="F129">
-        <v>6.7819287099899999</v>
+        <v>8.1547863254300008</v>
       </c>
       <c r="G129">
-        <v>6.9245378407600002</v>
+        <v>8.2378735412299999</v>
       </c>
       <c r="H129">
-        <v>6.8978361487999997</v>
+        <v>8.2071928823300002</v>
       </c>
     </row>
   </sheetData>
